--- a/Excel_Files/Stats_Populations/1_cm/814_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/1_cm/814_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0003769099767480747</v>
+        <v>0.005923025677143288</v>
       </c>
       <c r="D2">
-        <v>0.0004745711012885293</v>
+        <v>0.005716046306263011</v>
       </c>
       <c r="E2">
-        <v>0.0004193540190572846</v>
+        <v>0.005798297086939982</v>
       </c>
       <c r="F2">
-        <v>0.0003690797811657669</v>
+        <v>0.005403148089879881</v>
       </c>
       <c r="G2">
-        <v>0.0002411954330571107</v>
+        <v>0.00544010840597399</v>
       </c>
       <c r="H2">
-        <v>0.0004745711012885293</v>
+        <v>0.005923025677143288</v>
       </c>
       <c r="I2">
-        <v>0.0005418212235421807</v>
+        <v>0.005934553699847991</v>
       </c>
       <c r="J2">
-        <v>0.0005730992807910096</v>
+        <v>0.005997703781651867</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.0002118808516363564</v>
+        <v>0.005422050798316103</v>
       </c>
       <c r="D3">
-        <v>0.0003384210689447536</v>
+        <v>0.005411104506432029</v>
       </c>
       <c r="E3">
-        <v>0.0002861092274014094</v>
+        <v>0.005461724801397576</v>
       </c>
       <c r="F3">
-        <v>0.0001821700339357101</v>
+        <v>0.005102883139903742</v>
       </c>
       <c r="G3">
-        <v>0.000181923542579331</v>
+        <v>0.005126262992610209</v>
       </c>
       <c r="H3">
-        <v>0.0002595813958984684</v>
+        <v>0.005371473814232332</v>
       </c>
       <c r="I3">
-        <v>0.0002848620390808193</v>
+        <v>0.005854054225877128</v>
       </c>
       <c r="J3">
-        <v>0.0001916320149556175</v>
+        <v>0.005620892308826939</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.0001271565632790115</v>
+        <v>0.005098735592255215</v>
       </c>
       <c r="D4">
-        <v>0.0001987812813376551</v>
+        <v>0.005194683235659147</v>
       </c>
       <c r="E4">
-        <v>0.0002049375537963472</v>
+        <v>0.00515807760657529</v>
       </c>
       <c r="F4">
-        <v>8.79816460020935E-05</v>
+        <v>0.004747680497836548</v>
       </c>
       <c r="G4">
-        <v>7.591221774470355E-05</v>
+        <v>0.004597606883943187</v>
       </c>
       <c r="H4">
-        <v>0.0001535861362793758</v>
+        <v>0.005059016285084332</v>
       </c>
       <c r="I4">
-        <v>0.0002043701032470414</v>
+        <v>0.00558534729470037</v>
       </c>
       <c r="J4">
-        <v>6.192222329501218E-05</v>
+        <v>0.004659066274751087</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>8.947426662356508E-06</v>
+        <v>0.002844262932158349</v>
       </c>
       <c r="D5">
-        <v>1.036364336888072E-05</v>
+        <v>0.00298479194480792</v>
       </c>
       <c r="E5">
-        <v>9.70414445576134E-06</v>
+        <v>0.002920005483071161</v>
       </c>
       <c r="F5">
-        <v>5.273273106190816E-06</v>
+        <v>0.002453961685412655</v>
       </c>
       <c r="G5">
-        <v>3.943005428095728E-06</v>
+        <v>0.002242924483870499</v>
       </c>
       <c r="H5">
-        <v>6.231098852781228E-06</v>
+        <v>0.002570860822015317</v>
       </c>
       <c r="I5">
-        <v>7.536526354038389E-06</v>
+        <v>0.002669736912230927</v>
       </c>
       <c r="J5">
-        <v>4.81989947449706E-06</v>
+        <v>0.002390071432484187</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>5.377821001605384E-06</v>
+        <v>0.002465630676856716</v>
       </c>
       <c r="D6">
-        <v>5.957743144785623E-06</v>
+        <v>0.002553222830144583</v>
       </c>
       <c r="E6">
-        <v>4.846041238243784E-06</v>
+        <v>0.002403370481551956</v>
       </c>
       <c r="F6">
-        <v>2.434604372168368E-06</v>
+        <v>0.001939347605602348</v>
       </c>
       <c r="G6">
-        <v>2.348023278894914E-06</v>
+        <v>0.001914299651303218</v>
       </c>
       <c r="H6">
-        <v>3.012544894177343E-06</v>
+        <v>0.002062512268820181</v>
       </c>
       <c r="I6">
-        <v>4.052826962706554E-06</v>
+        <v>0.002273414210455834</v>
       </c>
       <c r="J6">
-        <v>2.645220125680542E-06</v>
+        <v>0.001956838464051856</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>2.427480698290194E-06</v>
+        <v>0.001956724118352088</v>
       </c>
       <c r="D7">
-        <v>3.533635555316878E-06</v>
+        <v>0.002191223236830506</v>
       </c>
       <c r="E7">
-        <v>1.350843425291079E-06</v>
+        <v>0.001621091980335054</v>
       </c>
       <c r="F7">
-        <v>8.239286950792169E-07</v>
+        <v>0.001421743312234956</v>
       </c>
       <c r="G7">
-        <v>1.152668914117901E-06</v>
+        <v>0.001537151540351645</v>
       </c>
       <c r="H7">
-        <v>8.239286950792169E-07</v>
+        <v>0.001421743312234956</v>
       </c>
       <c r="I7">
-        <v>2.174509136722802E-06</v>
+        <v>0.001898633436211976</v>
       </c>
       <c r="J7">
-        <v>8.868934047602284E-07</v>
+        <v>0.001445957715207919</v>
       </c>
     </row>
   </sheetData>
